--- a/medicine/Mort/Kenny_se_meurt/Kenny_se_meurt.xlsx
+++ b/medicine/Mort/Kenny_se_meurt/Kenny_se_meurt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kenny se meurt (Kenny Dies en version originale) est le treizième épisode de la cinquième saison de la série animée South Park, ainsi que le 78e épisode de l'émission.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kenny est atteint d'une myopathie de Duchenne, une maladie rare, et va mourir. Chacun de ses amis a une réaction différente : Stan ne peut supporter de voir son ami mourir, Kyle est extrêmement choqué mais désire le soutenir jusqu'à la fin et Cartman entreprend de demander au Congrès des États-Unis de reprendre la recherche sur les cellules souches, dont il vient de trouver un chargement, ce qui pourrait sauver Kenny.
 </t>
@@ -543,7 +557,9 @@
           <t>Continuité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors que jusqu'ici le personnage de Kenny mourait rituellement dans chaque épisode pour réapparaître au suivant, sans que quiconque s'en émeuve plus que quelques secondes, cet épisode était destiné à l'éliminer pour de bon.  Le ressort comique de l'épisode repose sur le contraste entre ces morts à répétition et l'intensité dramatique donnée à son agonie.  Kenny toutefois n'est en définitive « resté mort » qu'une année, revenant pour l'épisode La Chute du traîneau rouge, comme d'habitude sans explications.  Ses morts sont devenues plus rares par la suite. 
 </t>
